--- a/academycity/data/ms/datasets/excel/raw_data/MO122_s.xlsx
+++ b/academycity/data/ms/datasets/excel/raw_data/MO122_s.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="131">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t xml:space="preserve">T2V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDV</t>
   </si>
   <si>
     <t xml:space="preserve">נ</t>
@@ -2331,19 +2334,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="989" min="6" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="990" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="961" min="7" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="962" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,6 +2365,9 @@
       <c r="E1" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -2371,13 +2377,16 @@
         <v>45</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>2.3</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,13 +2397,16 @@
         <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.087</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,13 +2417,16 @@
         <v>58</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.925489</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,13 +2437,16 @@
         <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>46</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1.57851</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,13 +2457,16 @@
         <v>98</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>47</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1.0784</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,13 +2477,16 @@
         <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0.305863</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,13 +2497,16 @@
         <v>104</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>35</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>2.35459</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,13 +2517,16 @@
         <v>108</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>42</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.398145</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,13 +2537,16 @@
         <v>150</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.4617</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,13 +2557,16 @@
         <v>150</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>22</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.413966</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,13 +2577,16 @@
         <v>150</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>39</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0.626613</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2558,13 +2597,16 @@
         <v>171</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>39</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>4.97</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,13 +2617,16 @@
         <v>172</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>37</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>24.13</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,13 +2637,16 @@
         <v>175</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>41</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>4.38</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,13 +2657,16 @@
         <v>176</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>2.59</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,13 +2677,16 @@
         <v>178</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>22</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>6.48</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2643,13 +2697,16 @@
         <v>198</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>37</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0.34</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,12 +2717,15 @@
         <v>198</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2677,12 +2737,15 @@
         <v>200</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2694,13 +2757,16 @@
         <v>200</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>36</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>0.4</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,13 +2777,16 @@
         <v>208</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>1.84</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,13 +2797,16 @@
         <v>45</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>26</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>0.63587</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0.079761</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,13 +2817,16 @@
         <v>55</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>1.915</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0.155</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,13 +2837,16 @@
         <v>58</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>29</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>1.58733</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0.047462</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,13 +2857,16 @@
         <v>58</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>34</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>2.532</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0.372</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,13 +2877,16 @@
         <v>98</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>4.909</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0.391</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2813,13 +2897,16 @@
         <v>104</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>33</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>3.68086</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0.081738</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,13 +2917,16 @@
         <v>108</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>2.12783</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0.081738</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,13 +2937,16 @@
         <v>150</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>36</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1.9327</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0.253124</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,13 +2957,16 @@
         <v>171</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>4.58</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,13 +2977,16 @@
         <v>171</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>37</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>12.88</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,13 +2997,16 @@
         <v>172</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>31</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>8.82</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,13 +3017,16 @@
         <v>175</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>29</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>1.42</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,13 +3037,16 @@
         <v>176</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>9.47</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,13 +3057,16 @@
         <v>178</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>26</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>0.23</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,13 +3077,16 @@
         <v>198</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>29</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,13 +3097,16 @@
         <v>198</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>53</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>0.3</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,13 +3117,16 @@
         <v>200</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>24</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>1.3</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,13 +3137,16 @@
         <v>208</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>26</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>0.6</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/academycity/data/ms/datasets/excel/raw_data/MO122_s.xlsx
+++ b/academycity/data/ms/datasets/excel/raw_data/MO122_s.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Normaliaz" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Model" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Dependent" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Model" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="131">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -2336,13 +2337,14 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="961" min="7" style="0" width="8.53"/>
@@ -3158,4 +3160,853 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.925489</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1.57851</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.0784</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.305863</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2.35459</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.398145</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.4617</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.413966</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.626613</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.63587</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0.079761</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1.58733</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0.047462</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>2.532</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>4.909</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0.391</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>3.68086</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0.081738</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>2.12783</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0.081738</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>1.9327</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0.253124</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>9.47</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>